--- a/run_log/run_results/train_history/training_history_run_9.xlsx
+++ b/run_log/run_results/train_history/training_history_run_9.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.03949108347296715</v>
+        <v>0.1223775669932365</v>
       </c>
       <c r="B2">
-        <v>0.9891036748886108</v>
+        <v>0.958997905254364</v>
       </c>
       <c r="C2">
-        <v>0.007586680352687836</v>
+        <v>0.01862435974180698</v>
       </c>
       <c r="D2">
-        <v>0.9983410835266113</v>
+        <v>0.997705340385437</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.005600661039352417</v>
+        <v>0.03228550404310226</v>
       </c>
       <c r="B3">
-        <v>0.9986586570739746</v>
+        <v>0.9933617115020752</v>
       </c>
       <c r="C3">
-        <v>0.001949307974427938</v>
+        <v>0.01066349260509014</v>
       </c>
       <c r="D3">
-        <v>0.9990046620368958</v>
+        <v>0.9981642961502075</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002211105078458786</v>
+        <v>0.01493936963379383</v>
       </c>
       <c r="B4">
-        <v>0.9995038509368896</v>
+        <v>0.9972929358482361</v>
       </c>
       <c r="C4">
-        <v>0.0001707612827885896</v>
+        <v>0.004882055800408125</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9990821480751038</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001140950829721987</v>
+        <v>0.009831191971898079</v>
       </c>
       <c r="B5">
-        <v>0.9997427463531494</v>
+        <v>0.9977930188179016</v>
       </c>
       <c r="C5">
-        <v>0.0006047695642337203</v>
+        <v>0.004934723954647779</v>
       </c>
       <c r="D5">
-        <v>0.9996682405471802</v>
+        <v>0.9990821480751038</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001298267277888954</v>
+        <v>0.007990546524524689</v>
       </c>
       <c r="B6">
-        <v>0.9997060298919678</v>
+        <v>0.9981206059455872</v>
       </c>
       <c r="C6">
-        <v>1.417400289938087E-05</v>
+        <v>0.003679408924654126</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0006916929851286113</v>
+        <v>0.008193503133952618</v>
       </c>
       <c r="B7">
-        <v>0.9997978806495667</v>
+        <v>0.997913658618927</v>
       </c>
       <c r="C7">
-        <v>2.216434722868144E-06</v>
+        <v>0.004622749518603086</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9993880987167358</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0003920952731277794</v>
+        <v>0.007798902690410614</v>
       </c>
       <c r="B8">
-        <v>0.9998713731765747</v>
+        <v>0.9980171322822571</v>
       </c>
       <c r="C8">
-        <v>4.237311259203125E-06</v>
+        <v>0.004469004459679127</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003514885902404785</v>
+        <v>0.007138410117477179</v>
       </c>
       <c r="B9">
-        <v>0.9998530149459839</v>
+        <v>0.9982413053512573</v>
       </c>
       <c r="C9">
-        <v>1.672701841926028E-06</v>
+        <v>0.005931383464485407</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9993880987167358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0005985904135741293</v>
+        <v>0.008381451480090618</v>
       </c>
       <c r="B10">
-        <v>0.9998713731765747</v>
+        <v>0.997948169708252</v>
       </c>
       <c r="C10">
-        <v>2.863702320610173E-05</v>
+        <v>0.005812073592096567</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0002260606997879222</v>
+        <v>0.007036083843559027</v>
       </c>
       <c r="B11">
-        <v>0.9999632239341736</v>
+        <v>0.9981550574302673</v>
       </c>
       <c r="C11">
-        <v>0.002097183372825384</v>
+        <v>0.005002932157367468</v>
       </c>
       <c r="D11">
-        <v>0.9996682405471802</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007192111224867404</v>
+        <v>0.007978073321282864</v>
       </c>
       <c r="B12">
-        <v>0.9998162388801575</v>
+        <v>0.9978446960449219</v>
       </c>
       <c r="C12">
-        <v>0.003357961308211088</v>
+        <v>0.005956779699772596</v>
       </c>
       <c r="D12">
-        <v>0.9996682405471802</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0004847351228818297</v>
+        <v>0.006428467109799385</v>
       </c>
       <c r="B13">
-        <v>0.9998713731765747</v>
+        <v>0.9983620047569275</v>
       </c>
       <c r="C13">
-        <v>1.008696472126758E-05</v>
+        <v>0.006881711538881063</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1.495113065175246E-05</v>
+        <v>0.007843729108572006</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.997948169708252</v>
       </c>
       <c r="C14">
-        <v>2.876727762668452E-07</v>
+        <v>0.004265444818884134</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>7.01752578606829E-05</v>
+        <v>0.007689123973250389</v>
       </c>
       <c r="B15">
-        <v>0.9999816417694092</v>
+        <v>0.997999906539917</v>
       </c>
       <c r="C15">
-        <v>4.380189366770537E-08</v>
+        <v>0.004163762554526329</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0008510920451954007</v>
+        <v>0.007852815091609955</v>
       </c>
       <c r="B16">
-        <v>0.9998530149459839</v>
+        <v>0.9978274703025818</v>
       </c>
       <c r="C16">
-        <v>4.321511823945912E-06</v>
+        <v>0.004234489053487778</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0008099206606857479</v>
+        <v>0.007323769386857748</v>
       </c>
       <c r="B17">
-        <v>0.9998162388801575</v>
+        <v>0.9980860948562622</v>
       </c>
       <c r="C17">
-        <v>6.645750545430928E-05</v>
+        <v>0.004082055762410164</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>6.125017534941435E-05</v>
+        <v>0.00681043928489089</v>
       </c>
       <c r="B18">
-        <v>0.9999816417694092</v>
+        <v>0.9982413053512573</v>
       </c>
       <c r="C18">
-        <v>1.656903623370454E-05</v>
+        <v>0.004034325480461121</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0001268155901925638</v>
+        <v>0.006828949321061373</v>
       </c>
       <c r="B19">
-        <v>0.9999632239341736</v>
+        <v>0.9981895685195923</v>
       </c>
       <c r="C19">
-        <v>1.334026649146836E-07</v>
+        <v>0.005054155830293894</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>6.860493158455938E-05</v>
+        <v>0.007985355332493782</v>
       </c>
       <c r="B20">
-        <v>0.9999816417694092</v>
+        <v>0.997948169708252</v>
       </c>
       <c r="C20">
-        <v>7.522025669004506E-08</v>
+        <v>0.004474431741982698</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>4.45816658611875E-05</v>
+        <v>0.007849578745663166</v>
       </c>
       <c r="B21">
-        <v>0.9999816417694092</v>
+        <v>0.997965395450592</v>
       </c>
       <c r="C21">
-        <v>6.52601128692254E-09</v>
+        <v>0.005258076824247837</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.867732316895854E-05</v>
+        <v>0.006594669539481401</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9983102679252625</v>
       </c>
       <c r="C22">
-        <v>0.001098080771043897</v>
+        <v>0.00402216799557209</v>
       </c>
       <c r="D22">
-        <v>0.9995023012161255</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0006776609807275236</v>
+        <v>0.007160215172916651</v>
       </c>
       <c r="B23">
-        <v>0.9998713731765747</v>
+        <v>0.9981033205986023</v>
       </c>
       <c r="C23">
-        <v>6.029587780176371E-07</v>
+        <v>0.003767822636291385</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0005809679860249162</v>
+        <v>0.007728687953203917</v>
       </c>
       <c r="B24">
-        <v>0.9998162388801575</v>
+        <v>0.9978619813919067</v>
       </c>
       <c r="C24">
-        <v>2.966388801262099E-10</v>
+        <v>0.003988831304013729</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001023672011797316</v>
+        <v>0.006970594637095928</v>
       </c>
       <c r="B25">
-        <v>0.9999448657035828</v>
+        <v>0.9981550574302673</v>
       </c>
       <c r="C25">
-        <v>1.03228758874252E-08</v>
+        <v>0.004047821275889874</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>2.657601180544589E-05</v>
+        <v>0.007586246822029352</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9981033205986023</v>
       </c>
       <c r="C26">
-        <v>8.483767466316294E-09</v>
+        <v>0.004579795524477959</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002718702598940581</v>
+        <v>0.007849248126149178</v>
       </c>
       <c r="B27">
-        <v>0.9998897314071655</v>
+        <v>0.9977757334709167</v>
       </c>
       <c r="C27">
-        <v>0.001507610664702952</v>
+        <v>0.004660735372453928</v>
       </c>
       <c r="D27">
-        <v>0.9996682405471802</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0005035664071328938</v>
+        <v>0.007322008721530437</v>
       </c>
       <c r="B28">
-        <v>0.9998897314071655</v>
+        <v>0.9981033205986023</v>
       </c>
       <c r="C28">
-        <v>1.451012622055714E-06</v>
+        <v>0.004038609098643064</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0003959842142648995</v>
+        <v>0.007212950848042965</v>
       </c>
       <c r="B29">
-        <v>0.9999265074729919</v>
+        <v>0.9981723427772522</v>
       </c>
       <c r="C29">
-        <v>3.241993340452609E-07</v>
+        <v>0.003310447325929999</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>7.330507651204243E-05</v>
+        <v>0.006164188962429762</v>
       </c>
       <c r="B30">
-        <v>0.9999816417694092</v>
+        <v>0.9983792304992676</v>
       </c>
       <c r="C30">
-        <v>1.483192235696151E-09</v>
+        <v>0.004757424350827932</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0002238068409496918</v>
+        <v>0.008193585090339184</v>
       </c>
       <c r="B31">
-        <v>0.9999816417694092</v>
+        <v>0.9977585077285767</v>
       </c>
       <c r="C31">
-        <v>2.353329309201513E-09</v>
+        <v>0.005165703129023314</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0004221589188091457</v>
+        <v>0.006845239549875259</v>
       </c>
       <c r="B32">
-        <v>0.9999632239341736</v>
+        <v>0.9981895685195923</v>
       </c>
       <c r="C32">
-        <v>1.85943605401917E-07</v>
+        <v>0.005096174776554108</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>6.039514573785709E-06</v>
+        <v>0.007180617656558752</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9980688691139221</v>
       </c>
       <c r="C33">
-        <v>6.478600198533968E-07</v>
+        <v>0.005100996699184179</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>7.299674393834721E-07</v>
+        <v>0.00675384933128953</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9981895685195923</v>
       </c>
       <c r="C34">
-        <v>1.035307803931573E-07</v>
+        <v>0.005710211582481861</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2.858406560335425E-07</v>
+        <v>0.006188265047967434</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9984309673309326</v>
       </c>
       <c r="C35">
-        <v>4.747861837017808E-08</v>
+        <v>0.005278698168694973</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001623523858143017</v>
+        <v>0.006439041811972857</v>
       </c>
       <c r="B36">
-        <v>0.9999816417694092</v>
+        <v>0.9983274936676025</v>
       </c>
       <c r="C36">
-        <v>1.687644584080772E-07</v>
+        <v>0.002918129554018378</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.000147274971823208</v>
+        <v>0.007952136918902397</v>
       </c>
       <c r="B37">
-        <v>0.9999632239341736</v>
+        <v>0.9978446960449219</v>
       </c>
       <c r="C37">
-        <v>0.0003401860885787755</v>
+        <v>0.004523593932390213</v>
       </c>
       <c r="D37">
-        <v>0.9996682405471802</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0006764062563888729</v>
+        <v>0.006706835702061653</v>
       </c>
       <c r="B38">
-        <v>0.9999448657035828</v>
+        <v>0.9982240200042725</v>
       </c>
       <c r="C38">
-        <v>2.068470017491109E-08</v>
+        <v>0.004524242598563433</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>3.659839421743527E-06</v>
+        <v>0.007013918831944466</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9981378316879272</v>
       </c>
       <c r="C39">
-        <v>2.630192508235041E-09</v>
+        <v>0.005669512320309877</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>4.295095641282387E-05</v>
+        <v>0.006953238509595394</v>
       </c>
       <c r="B40">
-        <v>0.9999632239341736</v>
+        <v>0.9981723427772522</v>
       </c>
       <c r="C40">
-        <v>7.526041656547022E-08</v>
+        <v>0.005232291761785746</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0007252507493831217</v>
+        <v>0.006810517981648445</v>
       </c>
       <c r="B41">
-        <v>0.9998897314071655</v>
+        <v>0.9982240200042725</v>
       </c>
       <c r="C41">
-        <v>9.373658294009601E-09</v>
+        <v>0.007534458767622709</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0001438748004147783</v>
+        <v>0.007293462287634611</v>
       </c>
       <c r="B42">
-        <v>0.9999816417694092</v>
+        <v>0.9982240200042725</v>
       </c>
       <c r="C42">
-        <v>1.77983308646823E-10</v>
+        <v>0.009473095647990704</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0004277213593013585</v>
+        <v>0.006847502663731575</v>
       </c>
       <c r="B43">
-        <v>0.9999081492424011</v>
+        <v>0.9981895685195923</v>
       </c>
       <c r="C43">
-        <v>1.384314746166737E-10</v>
+        <v>0.006563213188201189</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.369027631881181E-05</v>
+        <v>0.006670957431197166</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9982585310935974</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.005262956488877535</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9996940493583679</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7.007867679931223E-06</v>
+        <v>0.007284670602530241</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9981206059455872</v>
       </c>
       <c r="C45">
-        <v>9.690191982159035E-10</v>
+        <v>0.006647361908107996</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0001943400129675865</v>
+        <v>0.007388622500002384</v>
       </c>
       <c r="B46">
-        <v>0.9999265074729919</v>
+        <v>0.9981206059455872</v>
       </c>
       <c r="C46">
-        <v>2.563985617598519E-05</v>
+        <v>0.004804467782378197</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1.164759760285961E-05</v>
+        <v>0.006299341563135386</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9983447194099426</v>
       </c>
       <c r="C47">
-        <v>4.548460219577777E-10</v>
+        <v>0.005138139706104994</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>4.85288655909244E-05</v>
+        <v>0.007272697985172272</v>
       </c>
       <c r="B48">
-        <v>0.9999816417694092</v>
+        <v>0.998051643371582</v>
       </c>
       <c r="C48">
-        <v>2.768628659666206E-10</v>
+        <v>0.005734541453421116</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2.241031324956566E-05</v>
+        <v>0.007220827508717775</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9982067942619324</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.004502250347286463</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0002113412483595312</v>
+        <v>0.006720075383782387</v>
       </c>
       <c r="B50">
-        <v>0.9999448657035828</v>
+        <v>0.9981378316879272</v>
       </c>
       <c r="C50">
-        <v>2.373110596920469E-10</v>
+        <v>0.008276755921542645</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>3.630204810178839E-05</v>
+        <v>0.007204321678727865</v>
       </c>
       <c r="B51">
-        <v>0.9999816417694092</v>
+        <v>0.9980343580245972</v>
       </c>
       <c r="C51">
-        <v>1.522742043569281E-09</v>
+        <v>0.008054028265178204</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9995410442352295</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_9.xlsx
+++ b/run_log/run_results/train_history/training_history_run_9.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1223775669932365</v>
+        <v>0.08367710560560226</v>
       </c>
       <c r="B2">
-        <v>0.958997905254364</v>
+        <v>0.9736980199813843</v>
       </c>
       <c r="C2">
-        <v>0.01862435974180698</v>
+        <v>0.01179144158959389</v>
       </c>
       <c r="D2">
-        <v>0.997705340385437</v>
+        <v>0.9963904619216919</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03228550404310226</v>
+        <v>0.01313626766204834</v>
       </c>
       <c r="B3">
-        <v>0.9933617115020752</v>
+        <v>0.9981400370597839</v>
       </c>
       <c r="C3">
-        <v>0.01066349260509014</v>
+        <v>0.04806109145283699</v>
       </c>
       <c r="D3">
-        <v>0.9981642961502075</v>
+        <v>0.9847771525382996</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01493936963379383</v>
+        <v>0.008491170592606068</v>
       </c>
       <c r="B4">
-        <v>0.9972929358482361</v>
+        <v>0.9983546137809753</v>
       </c>
       <c r="C4">
-        <v>0.004882055800408125</v>
+        <v>0.01407028362154961</v>
       </c>
       <c r="D4">
-        <v>0.9990821480751038</v>
+        <v>0.9922316670417786</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.009831191971898079</v>
+        <v>0.004161574877798557</v>
       </c>
       <c r="B5">
-        <v>0.9977930188179016</v>
+        <v>0.9989507794380188</v>
       </c>
       <c r="C5">
-        <v>0.004934723954647779</v>
+        <v>0.001539218705147505</v>
       </c>
       <c r="D5">
-        <v>0.9990821480751038</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.007990546524524689</v>
+        <v>0.002075845841318369</v>
       </c>
       <c r="B6">
-        <v>0.9981206059455872</v>
+        <v>0.9995469450950623</v>
       </c>
       <c r="C6">
-        <v>0.003679408924654126</v>
+        <v>0.006949895527213812</v>
       </c>
       <c r="D6">
-        <v>0.9995410442352295</v>
+        <v>0.9977244138717651</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.008193503133952618</v>
+        <v>0.003393801860511303</v>
       </c>
       <c r="B7">
-        <v>0.997913658618927</v>
+        <v>0.9993323087692261</v>
       </c>
       <c r="C7">
-        <v>0.004622749518603086</v>
+        <v>0.005113150924444199</v>
       </c>
       <c r="D7">
-        <v>0.9993880987167358</v>
+        <v>0.9981167316436768</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.007798902690410614</v>
+        <v>0.001545752165839076</v>
       </c>
       <c r="B8">
-        <v>0.9980171322822571</v>
+        <v>0.9996423125267029</v>
       </c>
       <c r="C8">
-        <v>0.004469004459679127</v>
+        <v>0.001036555273458362</v>
       </c>
       <c r="D8">
-        <v>0.9995410442352295</v>
+        <v>0.999764621257782</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.007138410117477179</v>
+        <v>0.001442248234525323</v>
       </c>
       <c r="B9">
-        <v>0.9982413053512573</v>
+        <v>0.9997138381004333</v>
       </c>
       <c r="C9">
-        <v>0.005931383464485407</v>
+        <v>0.001507075852714479</v>
       </c>
       <c r="D9">
-        <v>0.9993880987167358</v>
+        <v>0.999764621257782</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.008381451480090618</v>
+        <v>0.001244012615643442</v>
       </c>
       <c r="B10">
-        <v>0.997948169708252</v>
+        <v>0.9997853636741638</v>
       </c>
       <c r="C10">
-        <v>0.005812073592096567</v>
+        <v>0.0007887334795668721</v>
       </c>
       <c r="D10">
-        <v>0.9995410442352295</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.007036083843559027</v>
+        <v>0.001406561117619276</v>
       </c>
       <c r="B11">
-        <v>0.9981550574302673</v>
+        <v>0.999666154384613</v>
       </c>
       <c r="C11">
-        <v>0.005002932157367468</v>
+        <v>0.003313457826152444</v>
       </c>
       <c r="D11">
-        <v>0.9995410442352295</v>
+        <v>0.9986660480499268</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.007978073321282864</v>
+        <v>0.0008873771876096725</v>
       </c>
       <c r="B12">
-        <v>0.9978446960449219</v>
+        <v>0.9998331069946289</v>
       </c>
       <c r="C12">
-        <v>0.005956779699772596</v>
+        <v>0.003963550552725792</v>
       </c>
       <c r="D12">
-        <v>0.9995410442352295</v>
+        <v>0.9981952309608459</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.006428467109799385</v>
+        <v>0.001155850477516651</v>
       </c>
       <c r="B13">
-        <v>0.9983620047569275</v>
+        <v>0.9997138381004333</v>
       </c>
       <c r="C13">
-        <v>0.006881711538881063</v>
+        <v>0.001831115805543959</v>
       </c>
       <c r="D13">
-        <v>0.9995410442352295</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.007843729108572006</v>
+        <v>0.001012247870676219</v>
       </c>
       <c r="B14">
-        <v>0.997948169708252</v>
+        <v>0.9997853636741638</v>
       </c>
       <c r="C14">
-        <v>0.004265444818884134</v>
+        <v>0.0009772931225597858</v>
       </c>
       <c r="D14">
-        <v>0.9996940493583679</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.007689123973250389</v>
+        <v>0.000583845132496208</v>
       </c>
       <c r="B15">
-        <v>0.997999906539917</v>
+        <v>0.9997376799583435</v>
       </c>
       <c r="C15">
-        <v>0.004163762554526329</v>
+        <v>0.009900409728288651</v>
       </c>
       <c r="D15">
-        <v>0.9995410442352295</v>
+        <v>0.9971751570701599</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.007852815091609955</v>
+        <v>0.0006925089401192963</v>
       </c>
       <c r="B16">
-        <v>0.9978274703025818</v>
+        <v>0.9998331069946289</v>
       </c>
       <c r="C16">
-        <v>0.004234489053487778</v>
+        <v>0.005516128148883581</v>
       </c>
       <c r="D16">
-        <v>0.9996940493583679</v>
+        <v>0.9976459741592407</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.007323769386857748</v>
+        <v>0.0001008109538815916</v>
       </c>
       <c r="B17">
-        <v>0.9980860948562622</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C17">
-        <v>0.004082055762410164</v>
+        <v>0.001042569754645228</v>
       </c>
       <c r="D17">
-        <v>0.9996940493583679</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.00681043928489089</v>
+        <v>0.001048156060278416</v>
       </c>
       <c r="B18">
-        <v>0.9982413053512573</v>
+        <v>0.9997138381004333</v>
       </c>
       <c r="C18">
-        <v>0.004034325480461121</v>
+        <v>0.001986816059798002</v>
       </c>
       <c r="D18">
-        <v>0.9996940493583679</v>
+        <v>0.9992938041687012</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.006828949321061373</v>
+        <v>0.0006120206089690328</v>
       </c>
       <c r="B19">
-        <v>0.9981895685195923</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C19">
-        <v>0.005054155830293894</v>
+        <v>0.000832011632155627</v>
       </c>
       <c r="D19">
-        <v>0.9996940493583679</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.007985355332493782</v>
+        <v>9.467918425798416E-05</v>
       </c>
       <c r="B20">
-        <v>0.997948169708252</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C20">
-        <v>0.004474431741982698</v>
+        <v>0.0004437766037881374</v>
       </c>
       <c r="D20">
-        <v>0.9995410442352295</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.007849578745663166</v>
+        <v>0.0004156877985224128</v>
       </c>
       <c r="B21">
-        <v>0.997965395450592</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C21">
-        <v>0.005258076824247837</v>
+        <v>0.003781295381486416</v>
       </c>
       <c r="D21">
-        <v>0.9995410442352295</v>
+        <v>0.9990583658218384</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.006594669539481401</v>
+        <v>0.001289392355829477</v>
       </c>
       <c r="B22">
-        <v>0.9983102679252625</v>
+        <v>0.999809205532074</v>
       </c>
       <c r="C22">
-        <v>0.00402216799557209</v>
+        <v>0.0001973091129912063</v>
       </c>
       <c r="D22">
-        <v>0.9996940493583679</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.007160215172916651</v>
+        <v>0.0005266459193080664</v>
       </c>
       <c r="B23">
-        <v>0.9981033205986023</v>
+        <v>0.9998331069946289</v>
       </c>
       <c r="C23">
-        <v>0.003767822636291385</v>
+        <v>0.001130411052145064</v>
       </c>
       <c r="D23">
-        <v>0.9996940493583679</v>
+        <v>0.999764621257782</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.007728687953203917</v>
+        <v>7.304515020223334E-05</v>
       </c>
       <c r="B24">
-        <v>0.9978619813919067</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.003988831304013729</v>
+        <v>0.0007031516288407147</v>
       </c>
       <c r="D24">
-        <v>0.9996940493583679</v>
+        <v>0.999764621257782</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.006970594637095928</v>
+        <v>0.0004401331534609199</v>
       </c>
       <c r="B25">
-        <v>0.9981550574302673</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C25">
-        <v>0.004047821275889874</v>
+        <v>0.0006734869093634188</v>
       </c>
       <c r="D25">
-        <v>0.9996940493583679</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.007586246822029352</v>
+        <v>0.000170375540619716</v>
       </c>
       <c r="B26">
-        <v>0.9981033205986023</v>
+        <v>0.9999284744262695</v>
       </c>
       <c r="C26">
-        <v>0.004579795524477959</v>
+        <v>4.496751353144646E-05</v>
       </c>
       <c r="D26">
-        <v>0.9996940493583679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.007849248126149178</v>
+        <v>0.0009175667073577642</v>
       </c>
       <c r="B27">
-        <v>0.9977757334709167</v>
+        <v>0.999809205532074</v>
       </c>
       <c r="C27">
-        <v>0.004660735372453928</v>
+        <v>6.813794607296586E-05</v>
       </c>
       <c r="D27">
-        <v>0.9996940493583679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.007322008721530437</v>
+        <v>0.000694229151122272</v>
       </c>
       <c r="B28">
-        <v>0.9981033205986023</v>
+        <v>0.9998569488525391</v>
       </c>
       <c r="C28">
-        <v>0.004038609098643064</v>
+        <v>0.0008815351757220924</v>
       </c>
       <c r="D28">
-        <v>0.9996940493583679</v>
+        <v>0.9994507431983948</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.007212950848042965</v>
+        <v>0.0004813307605218142</v>
       </c>
       <c r="B29">
-        <v>0.9981723427772522</v>
+        <v>0.9998807907104492</v>
       </c>
       <c r="C29">
-        <v>0.003310447325929999</v>
+        <v>0.0001011676431517117</v>
       </c>
       <c r="D29">
-        <v>0.9995410442352295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.006164188962429762</v>
+        <v>0.0001832985290093347</v>
       </c>
       <c r="B30">
-        <v>0.9983792304992676</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C30">
-        <v>0.004757424350827932</v>
+        <v>7.877962343627587E-05</v>
       </c>
       <c r="D30">
-        <v>0.9995410442352295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.008193585090339184</v>
+        <v>3.09995302814059E-05</v>
       </c>
       <c r="B31">
-        <v>0.9977585077285767</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.005165703129023314</v>
+        <v>4.02056029997766E-05</v>
       </c>
       <c r="D31">
-        <v>0.9996940493583679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.006845239549875259</v>
+        <v>1.307673846895341E-05</v>
       </c>
       <c r="B32">
-        <v>0.9981895685195923</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.005096174776554108</v>
+        <v>1.268733194592642E-05</v>
       </c>
       <c r="D32">
-        <v>0.9996940493583679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.007180617656558752</v>
+        <v>3.45670196111314E-05</v>
       </c>
       <c r="B33">
-        <v>0.9980688691139221</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C33">
-        <v>0.005100996699184179</v>
+        <v>0.0003101641486864537</v>
       </c>
       <c r="D33">
-        <v>0.9996940493583679</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.00675384933128953</v>
+        <v>0.0007797896978445351</v>
       </c>
       <c r="B34">
-        <v>0.9981895685195923</v>
+        <v>0.9999284744262695</v>
       </c>
       <c r="C34">
-        <v>0.005710211582481861</v>
+        <v>0.003792723640799522</v>
       </c>
       <c r="D34">
-        <v>0.9996940493583679</v>
+        <v>0.9981167316436768</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.006188265047967434</v>
+        <v>0.0006700505618937314</v>
       </c>
       <c r="B35">
-        <v>0.9984309673309326</v>
+        <v>0.9998569488525391</v>
       </c>
       <c r="C35">
-        <v>0.005278698168694973</v>
+        <v>0.0002147698687622324</v>
       </c>
       <c r="D35">
-        <v>0.9995410442352295</v>
+        <v>0.9998430609703064</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.006439041811972857</v>
+        <v>0.0004515814944170415</v>
       </c>
       <c r="B36">
-        <v>0.9983274936676025</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C36">
-        <v>0.002918129554018378</v>
+        <v>4.451765926205553E-05</v>
       </c>
       <c r="D36">
-        <v>0.9995410442352295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.007952136918902397</v>
+        <v>7.142062531784177E-05</v>
       </c>
       <c r="B37">
-        <v>0.9978446960449219</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C37">
-        <v>0.004523593932390213</v>
+        <v>1.488947418692987E-06</v>
       </c>
       <c r="D37">
-        <v>0.9995410442352295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.006706835702061653</v>
+        <v>2.016609141719528E-05</v>
       </c>
       <c r="B38">
-        <v>0.9982240200042725</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.004524242598563433</v>
+        <v>6.911841774126515E-05</v>
       </c>
       <c r="D38">
-        <v>0.9996940493583679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.007013918831944466</v>
+        <v>4.546483978629112E-05</v>
       </c>
       <c r="B39">
-        <v>0.9981378316879272</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C39">
-        <v>0.005669512320309877</v>
+        <v>0.00285354838706553</v>
       </c>
       <c r="D39">
-        <v>0.9995410442352295</v>
+        <v>0.9994507431983948</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.006953238509595394</v>
+        <v>0.001548729836940765</v>
       </c>
       <c r="B40">
-        <v>0.9981723427772522</v>
+        <v>0.9998331069946289</v>
       </c>
       <c r="C40">
-        <v>0.005232291761785746</v>
+        <v>0.00144458282738924</v>
       </c>
       <c r="D40">
-        <v>0.9995410442352295</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.006810517981648445</v>
+        <v>0.0002306812384631485</v>
       </c>
       <c r="B41">
-        <v>0.9982240200042725</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="C41">
-        <v>0.007534458767622709</v>
+        <v>0.002107588341459632</v>
       </c>
       <c r="D41">
-        <v>0.9995410442352295</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.007293462287634611</v>
+        <v>4.449577318155207E-05</v>
       </c>
       <c r="B42">
-        <v>0.9982240200042725</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.009473095647990704</v>
+        <v>0.001186553854495287</v>
       </c>
       <c r="D42">
-        <v>0.9995410442352295</v>
+        <v>0.9996076822280884</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.006847502663731575</v>
+        <v>0.0009634911548346281</v>
       </c>
       <c r="B43">
-        <v>0.9981895685195923</v>
+        <v>0.9998807907104492</v>
       </c>
       <c r="C43">
-        <v>0.006563213188201189</v>
+        <v>2.136895272997208E-05</v>
       </c>
       <c r="D43">
-        <v>0.9995410442352295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.006670957431197166</v>
+        <v>0.0001880240452010185</v>
       </c>
       <c r="B44">
-        <v>0.9982585310935974</v>
+        <v>0.9999284744262695</v>
       </c>
       <c r="C44">
-        <v>0.005262956488877535</v>
+        <v>0.0002064207656076178</v>
       </c>
       <c r="D44">
-        <v>0.9996940493583679</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.007284670602530241</v>
+        <v>0.0006568202516064048</v>
       </c>
       <c r="B45">
-        <v>0.9981206059455872</v>
+        <v>0.9999523162841797</v>
       </c>
       <c r="C45">
-        <v>0.006647361908107996</v>
+        <v>0.0005454533384181559</v>
       </c>
       <c r="D45">
-        <v>0.9995410442352295</v>
+        <v>0.9998430609703064</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.007388622500002384</v>
+        <v>0.0009652992594055831</v>
       </c>
       <c r="B46">
-        <v>0.9981206059455872</v>
+        <v>0.999809205532074</v>
       </c>
       <c r="C46">
-        <v>0.004804467782378197</v>
+        <v>0.0007611916516907513</v>
       </c>
       <c r="D46">
-        <v>0.9995410442352295</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.006299341563135386</v>
+        <v>6.486885104095563E-05</v>
       </c>
       <c r="B47">
-        <v>0.9983447194099426</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C47">
-        <v>0.005138139706104994</v>
+        <v>0.0008561391150578856</v>
       </c>
       <c r="D47">
-        <v>0.9995410442352295</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.007272697985172272</v>
+        <v>0.0001817394804675132</v>
       </c>
       <c r="B48">
-        <v>0.998051643371582</v>
+        <v>0.9999284744262695</v>
       </c>
       <c r="C48">
-        <v>0.005734541453421116</v>
+        <v>0.0004921953659504652</v>
       </c>
       <c r="D48">
-        <v>0.9995410442352295</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.007220827508717775</v>
+        <v>0.0004948212299495935</v>
       </c>
       <c r="B49">
-        <v>0.9982067942619324</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C49">
-        <v>0.004502250347286463</v>
+        <v>0.02639380097389221</v>
       </c>
       <c r="D49">
-        <v>0.9995410442352295</v>
+        <v>0.9890144467353821</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.006720075383782387</v>
+        <v>0.0001238637632923201</v>
       </c>
       <c r="B50">
-        <v>0.9981378316879272</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="C50">
-        <v>0.008276755921542645</v>
+        <v>7.642973650945351E-05</v>
       </c>
       <c r="D50">
-        <v>0.9995410442352295</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.007204321678727865</v>
+        <v>6.831506652815733E-06</v>
       </c>
       <c r="B51">
-        <v>0.9980343580245972</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.008054028265178204</v>
+        <v>0.0001523956598248333</v>
       </c>
       <c r="D51">
-        <v>0.9995410442352295</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_9.xlsx
+++ b/run_log/run_results/train_history/training_history_run_9.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.08367710560560226</v>
+        <v>0.04872769489884377</v>
       </c>
       <c r="B2">
-        <v>0.9736980199813843</v>
+        <v>0.9913510084152222</v>
       </c>
       <c r="C2">
-        <v>0.01179144158959389</v>
+        <v>0.1162698268890381</v>
       </c>
       <c r="D2">
-        <v>0.9963904619216919</v>
+        <v>0.963495135307312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01313626766204834</v>
+        <v>0.00778226787224412</v>
       </c>
       <c r="B3">
-        <v>0.9981400370597839</v>
+        <v>0.998447597026825</v>
       </c>
       <c r="C3">
-        <v>0.04806109145283699</v>
+        <v>0.06846234947443008</v>
       </c>
       <c r="D3">
-        <v>0.9847771525382996</v>
+        <v>0.9778631925582886</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.008491170592606068</v>
+        <v>0.00463435472920537</v>
       </c>
       <c r="B4">
-        <v>0.9983546137809753</v>
+        <v>0.9987096786499023</v>
       </c>
       <c r="C4">
-        <v>0.01407028362154961</v>
+        <v>0.01203029230237007</v>
       </c>
       <c r="D4">
-        <v>0.9922316670417786</v>
+        <v>0.9985799193382263</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.004161574877798557</v>
+        <v>0.001854672096669674</v>
       </c>
       <c r="B5">
-        <v>0.9989507794380188</v>
+        <v>0.9994354844093323</v>
       </c>
       <c r="C5">
-        <v>0.001539218705147505</v>
+        <v>0.01542354468256235</v>
       </c>
       <c r="D5">
-        <v>0.9996076822280884</v>
+        <v>0.9951549768447876</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002075845841318369</v>
+        <v>0.001591858570463955</v>
       </c>
       <c r="B6">
-        <v>0.9995469450950623</v>
+        <v>0.9996572732925415</v>
       </c>
       <c r="C6">
-        <v>0.006949895527213812</v>
+        <v>0.00940130278468132</v>
       </c>
       <c r="D6">
-        <v>0.9977244138717651</v>
+        <v>0.9990811347961426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.003393801860511303</v>
+        <v>0.001263531274162233</v>
       </c>
       <c r="B7">
-        <v>0.9993323087692261</v>
+        <v>0.9996774196624756</v>
       </c>
       <c r="C7">
-        <v>0.005113150924444199</v>
+        <v>0.0175401009619236</v>
       </c>
       <c r="D7">
-        <v>0.9981167316436768</v>
+        <v>0.9929830431938171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001545752165839076</v>
+        <v>0.0009633513982407749</v>
       </c>
       <c r="B8">
-        <v>0.9996423125267029</v>
+        <v>0.9996371269226074</v>
       </c>
       <c r="C8">
-        <v>0.001036555273458362</v>
+        <v>0.001459159655496478</v>
       </c>
       <c r="D8">
-        <v>0.999764621257782</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001442248234525323</v>
+        <v>0.001066343393176794</v>
       </c>
       <c r="B9">
-        <v>0.9997138381004333</v>
+        <v>0.9997984170913696</v>
       </c>
       <c r="C9">
-        <v>0.001507075852714479</v>
+        <v>0.004663672298192978</v>
       </c>
       <c r="D9">
-        <v>0.999764621257782</v>
+        <v>0.9991646409034729</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001244012615643442</v>
+        <v>0.0005156368133611977</v>
       </c>
       <c r="B10">
-        <v>0.9997853636741638</v>
+        <v>0.9998992085456848</v>
       </c>
       <c r="C10">
-        <v>0.0007887334795668721</v>
+        <v>0.002270422410219908</v>
       </c>
       <c r="D10">
-        <v>0.9996861219406128</v>
+        <v>0.999248206615448</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001406561117619276</v>
+        <v>0.001056618755683303</v>
       </c>
       <c r="B11">
-        <v>0.999666154384613</v>
+        <v>0.9997782111167908</v>
       </c>
       <c r="C11">
-        <v>0.003313457826152444</v>
+        <v>0.001016339985653758</v>
       </c>
       <c r="D11">
-        <v>0.9986660480499268</v>
+        <v>0.9997494220733643</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0008873771876096725</v>
+        <v>0.0003958890156354755</v>
       </c>
       <c r="B12">
-        <v>0.9998331069946289</v>
+        <v>0.9998588562011719</v>
       </c>
       <c r="C12">
-        <v>0.003963550552725792</v>
+        <v>0.0008839988731779158</v>
       </c>
       <c r="D12">
-        <v>0.9981952309608459</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001155850477516651</v>
+        <v>0.0005234397249296308</v>
       </c>
       <c r="B13">
-        <v>0.9997138381004333</v>
+        <v>0.9997782111167908</v>
       </c>
       <c r="C13">
-        <v>0.001831115805543959</v>
+        <v>0.0009705186239443719</v>
       </c>
       <c r="D13">
-        <v>0.9996076822280884</v>
+        <v>0.9997494220733643</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.001012247870676219</v>
+        <v>0.0004141610697843134</v>
       </c>
       <c r="B14">
-        <v>0.9997853636741638</v>
+        <v>0.9998992085456848</v>
       </c>
       <c r="C14">
-        <v>0.0009772931225597858</v>
+        <v>0.001528264256194234</v>
       </c>
       <c r="D14">
-        <v>0.9996861219406128</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000583845132496208</v>
+        <v>8.285167859867215E-05</v>
       </c>
       <c r="B15">
-        <v>0.9997376799583435</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C15">
-        <v>0.009900409728288651</v>
+        <v>0.001273514702916145</v>
       </c>
       <c r="D15">
-        <v>0.9971751570701599</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0006925089401192963</v>
+        <v>0.0003121593326795846</v>
       </c>
       <c r="B16">
-        <v>0.9998331069946289</v>
+        <v>0.9999193549156189</v>
       </c>
       <c r="C16">
-        <v>0.005516128148883581</v>
+        <v>0.001323317643254995</v>
       </c>
       <c r="D16">
-        <v>0.9976459741592407</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001008109538815916</v>
+        <v>0.0001992267643800005</v>
       </c>
       <c r="B17">
-        <v>0.9999761581420898</v>
+        <v>0.9999193549156189</v>
       </c>
       <c r="C17">
-        <v>0.001042569754645228</v>
+        <v>0.00167994829826057</v>
       </c>
       <c r="D17">
-        <v>0.9996076822280884</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.001048156060278416</v>
+        <v>0.0004221591516397893</v>
       </c>
       <c r="B18">
-        <v>0.9997138381004333</v>
+        <v>0.9998992085456848</v>
       </c>
       <c r="C18">
-        <v>0.001986816059798002</v>
+        <v>0.001895668567158282</v>
       </c>
       <c r="D18">
-        <v>0.9992938041687012</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0006120206089690328</v>
+        <v>0.0002443742996547371</v>
       </c>
       <c r="B19">
-        <v>0.9999046325683594</v>
+        <v>0.9999193549156189</v>
       </c>
       <c r="C19">
-        <v>0.000832011632155627</v>
+        <v>0.002119817305356264</v>
       </c>
       <c r="D19">
-        <v>0.9999215602874756</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9.467918425798416E-05</v>
+        <v>0.000206456141313538</v>
       </c>
       <c r="B20">
-        <v>0.9999761581420898</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C20">
-        <v>0.0004437766037881374</v>
+        <v>0.001915992004796863</v>
       </c>
       <c r="D20">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004156877985224128</v>
+        <v>0.0007310992805287242</v>
       </c>
       <c r="B21">
-        <v>0.9999046325683594</v>
+        <v>0.9998387098312378</v>
       </c>
       <c r="C21">
-        <v>0.003781295381486416</v>
+        <v>0.002349842339754105</v>
       </c>
       <c r="D21">
-        <v>0.9990583658218384</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.001289392355829477</v>
+        <v>0.0003132978163193911</v>
       </c>
       <c r="B22">
-        <v>0.999809205532074</v>
+        <v>0.999939501285553</v>
       </c>
       <c r="C22">
-        <v>0.0001973091129912063</v>
+        <v>0.00182623160071671</v>
       </c>
       <c r="D22">
-        <v>0.9999215602874756</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0005266459193080664</v>
+        <v>3.318466042401269E-05</v>
       </c>
       <c r="B23">
-        <v>0.9998331069946289</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C23">
-        <v>0.001130411052145064</v>
+        <v>0.00202444102615118</v>
       </c>
       <c r="D23">
-        <v>0.999764621257782</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>7.304515020223334E-05</v>
+        <v>0.0009933458641171455</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9998185634613037</v>
       </c>
       <c r="C24">
-        <v>0.0007031516288407147</v>
+        <v>0.001152956043370068</v>
       </c>
       <c r="D24">
-        <v>0.999764621257782</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0004401331534609199</v>
+        <v>0.0002190259110648185</v>
       </c>
       <c r="B25">
-        <v>0.9999046325683594</v>
+        <v>0.999939501285553</v>
       </c>
       <c r="C25">
-        <v>0.0006734869093634188</v>
+        <v>0.002094593364745378</v>
       </c>
       <c r="D25">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.000170375540619716</v>
+        <v>0.0005047370214015245</v>
       </c>
       <c r="B26">
-        <v>0.9999284744262695</v>
+        <v>0.9998790621757507</v>
       </c>
       <c r="C26">
-        <v>4.496751353144646E-05</v>
+        <v>0.00181324640288949</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0009175667073577642</v>
+        <v>5.787853297078982E-05</v>
       </c>
       <c r="B27">
-        <v>0.999809205532074</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C27">
-        <v>6.813794607296586E-05</v>
+        <v>0.00162134354468435</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.000694229151122272</v>
+        <v>5.760549174738117E-05</v>
       </c>
       <c r="B28">
-        <v>0.9998569488525391</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C28">
-        <v>0.0008815351757220924</v>
+        <v>0.003307906445115805</v>
       </c>
       <c r="D28">
-        <v>0.9994507431983948</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004813307605218142</v>
+        <v>0.0003011898952536285</v>
       </c>
       <c r="B29">
-        <v>0.9998807907104492</v>
+        <v>0.9998992085456848</v>
       </c>
       <c r="C29">
-        <v>0.0001011676431517117</v>
+        <v>0.01857579313218594</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9941525459289551</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001832985290093347</v>
+        <v>0.0002523934235796332</v>
       </c>
       <c r="B30">
-        <v>0.9999761581420898</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C30">
-        <v>7.877962343627587E-05</v>
+        <v>0.003325604135170579</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>3.09995302814059E-05</v>
+        <v>8.441307727480307E-06</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4.02056029997766E-05</v>
+        <v>0.003541434183716774</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.307673846895341E-05</v>
+        <v>0.0001541435776744038</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.999939501285553</v>
       </c>
       <c r="C32">
-        <v>1.268733194592642E-05</v>
+        <v>0.002098003169521689</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>3.45670196111314E-05</v>
+        <v>0.0007424585637636483</v>
       </c>
       <c r="B33">
-        <v>0.9999761581420898</v>
+        <v>0.9998387098312378</v>
       </c>
       <c r="C33">
-        <v>0.0003101641486864537</v>
+        <v>0.001337770256213844</v>
       </c>
       <c r="D33">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0007797896978445351</v>
+        <v>0.000137047391035594</v>
       </c>
       <c r="B34">
-        <v>0.9999284744262695</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C34">
-        <v>0.003792723640799522</v>
+        <v>0.002440424636006355</v>
       </c>
       <c r="D34">
-        <v>0.9981167316436768</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0006700505618937314</v>
+        <v>2.120395220117643E-05</v>
       </c>
       <c r="B35">
-        <v>0.9998569488525391</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C35">
-        <v>0.0002147698687622324</v>
+        <v>0.002577274572104216</v>
       </c>
       <c r="D35">
-        <v>0.9998430609703064</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0004515814944170415</v>
+        <v>0.0001176949808723293</v>
       </c>
       <c r="B36">
-        <v>0.9999761581420898</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C36">
-        <v>4.451765926205553E-05</v>
+        <v>0.002308253897354007</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7.142062531784177E-05</v>
+        <v>0.0004537097120191902</v>
       </c>
       <c r="B37">
-        <v>0.9999761581420898</v>
+        <v>0.9998588562011719</v>
       </c>
       <c r="C37">
-        <v>1.488947418692987E-06</v>
+        <v>0.002078523859381676</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2.016609141719528E-05</v>
+        <v>0.0002284746151417494</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.999939501285553</v>
       </c>
       <c r="C38">
-        <v>6.911841774126515E-05</v>
+        <v>0.00232000183314085</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>4.546483978629112E-05</v>
+        <v>0.0002947113825939596</v>
       </c>
       <c r="B39">
-        <v>0.9999761581420898</v>
+        <v>0.9999193549156189</v>
       </c>
       <c r="C39">
-        <v>0.00285354838706553</v>
+        <v>0.003107803408056498</v>
       </c>
       <c r="D39">
-        <v>0.9994507431983948</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.001548729836940765</v>
+        <v>1.482611241954146E-05</v>
       </c>
       <c r="B40">
-        <v>0.9998331069946289</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.00144458282738924</v>
+        <v>0.003810758702456951</v>
       </c>
       <c r="D40">
-        <v>0.9996076822280884</v>
+        <v>0.9996658563613892</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002306812384631485</v>
+        <v>0.000194270905922167</v>
       </c>
       <c r="B41">
-        <v>0.9999046325683594</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C41">
-        <v>0.002107588341459632</v>
+        <v>0.003062099916860461</v>
       </c>
       <c r="D41">
-        <v>0.9996076822280884</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>4.449577318155207E-05</v>
+        <v>0.0001900628121802583</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9999193549156189</v>
       </c>
       <c r="C42">
-        <v>0.001186553854495287</v>
+        <v>0.003283705795183778</v>
       </c>
       <c r="D42">
-        <v>0.9996076822280884</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0009634911548346281</v>
+        <v>0.0001322337338933721</v>
       </c>
       <c r="B43">
-        <v>0.9998807907104492</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C43">
-        <v>2.136895272997208E-05</v>
+        <v>0.003577649127691984</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0001880240452010185</v>
+        <v>0.0001524569961475208</v>
       </c>
       <c r="B44">
-        <v>0.9999284744262695</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C44">
-        <v>0.0002064207656076178</v>
+        <v>0.001904546981677413</v>
       </c>
       <c r="D44">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0006568202516064048</v>
+        <v>0.0002568055060692132</v>
       </c>
       <c r="B45">
-        <v>0.9999523162841797</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C45">
-        <v>0.0005454533384181559</v>
+        <v>0.003277556970715523</v>
       </c>
       <c r="D45">
-        <v>0.9998430609703064</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0009652992594055831</v>
+        <v>1.13979740490322E-05</v>
       </c>
       <c r="B46">
-        <v>0.999809205532074</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.0007611916516907513</v>
+        <v>0.003416521940380335</v>
       </c>
       <c r="D46">
-        <v>0.9996861219406128</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>6.486885104095563E-05</v>
+        <v>7.801568426657468E-05</v>
       </c>
       <c r="B47">
-        <v>0.9999761581420898</v>
+        <v>0.9999798536300659</v>
       </c>
       <c r="C47">
-        <v>0.0008561391150578856</v>
+        <v>0.003669193014502525</v>
       </c>
       <c r="D47">
-        <v>0.9996861219406128</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0001817394804675132</v>
+        <v>9.052690074895509E-06</v>
       </c>
       <c r="B48">
-        <v>0.9999284744262695</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.0004921953659504652</v>
+        <v>0.004442702047526836</v>
       </c>
       <c r="D48">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0004948212299495935</v>
+        <v>0.0004959235666319728</v>
       </c>
       <c r="B49">
-        <v>0.9999761581420898</v>
+        <v>0.9998992085456848</v>
       </c>
       <c r="C49">
-        <v>0.02639380097389221</v>
+        <v>0.004369628615677357</v>
       </c>
       <c r="D49">
-        <v>0.9890144467353821</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001238637632923201</v>
+        <v>7.549977453891188E-05</v>
       </c>
       <c r="B50">
-        <v>0.9999761581420898</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="C50">
-        <v>7.642973650945351E-05</v>
+        <v>0.005136909428983927</v>
       </c>
       <c r="D50">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6.831506652815733E-06</v>
+        <v>0.000544364913366735</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.999939501285553</v>
       </c>
       <c r="C51">
-        <v>0.0001523956598248333</v>
+        <v>0.00380149926058948</v>
       </c>
       <c r="D51">
-        <v>0.9999215602874756</v>
+        <v>0.9998329281806946</v>
       </c>
     </row>
   </sheetData>
